--- a/PO/ExcelPO/test1.xlsx
+++ b/PO/ExcelPO/test1.xlsx
@@ -1,34 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\ExcelPO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,43 +70,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4200525" cy="3495675"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,28 +372,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>you should see threee logs below</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>